--- a/FileMaster/configulation.xlsx
+++ b/FileMaster/configulation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\Email_Dispatcher\FileMaster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaadmin\Documents\UiPath\HPC_EMAIL_DISPATCHER\FileMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34008F8A-12C0-492F-8673-E99DDAD5A269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F508E36-0D43-4FB8-8735-FF73214DC09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="ORCHESTRATOR_VARIABLE" sheetId="3" r:id="rId1"/>
     <sheet name="ORCHESTRATOR_CREDENTIAL_VARIABL" sheetId="7" r:id="rId2"/>
     <sheet name="Constants" sheetId="5" r:id="rId3"/>
-    <sheet name="No use Template_Constants" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="No use Mail_Constants" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="Constants Backup" sheetId="10" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ORCHESTRATOR_VARIABLE!$A$1:$D$1</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>Value</t>
   </si>
@@ -59,102 +58,9 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>strServerMail</t>
-  </si>
-  <si>
-    <t>arrstrTemplatePaths</t>
-  </si>
-  <si>
-    <t>strMailSenderName</t>
-  </si>
-  <si>
-    <t>ControlChart uiPath Robot</t>
-  </si>
-  <si>
-    <t>strErrorTempPath</t>
-  </si>
-  <si>
-    <t>strControlChartMasterPath</t>
-  </si>
-  <si>
-    <t>https://smtp.office365.com</t>
-  </si>
-  <si>
-    <t>strErrorMailSubject</t>
-  </si>
-  <si>
     <t>Aphiruth.s@baraadv.co.th</t>
   </si>
   <si>
-    <t>strErrorMailTo</t>
-  </si>
-  <si>
-    <t>strErrorMailCC</t>
-  </si>
-  <si>
-    <t>strYearResult</t>
-  </si>
-  <si>
-    <t>strCriteriaAnalyzeFile</t>
-  </si>
-  <si>
-    <t>strRawData</t>
-  </si>
-  <si>
-    <t>strMailTriggerReportTemp</t>
-  </si>
-  <si>
-    <t>strMailWeeklyReportTemp</t>
-  </si>
-  <si>
-    <t>strNotiMailWeeklySubject</t>
-  </si>
-  <si>
-    <t>strNotiMailTriggerSubject</t>
-  </si>
-  <si>
-    <t>strNotiMailWeeklyCC</t>
-  </si>
-  <si>
-    <t>strNotiMailWeeklyTo</t>
-  </si>
-  <si>
-    <t>strNotiMailTriggerTo</t>
-  </si>
-  <si>
-    <t>strNotiMailTriggerCC</t>
-  </si>
-  <si>
-    <t>RPA LIMS Control Chart Report &lt;$Time$&gt; &lt;$Date$&gt;/&lt;$Month$&gt;/&lt;$Year$&gt;</t>
-  </si>
-  <si>
-    <t>RPA LIMS Control Chart Weekly Report &lt;$Time$&gt; &lt;$Date$&gt;/&lt;$Month$&gt;/&lt;$Year$&gt;</t>
-  </si>
-  <si>
-    <t>RPA Error &lt;$Time$&gt; &lt;$Date$&gt;/&lt;$Month$&gt;/&lt;$Year$&gt;</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\EmailTemplate\CTRLTriggerReport_Template.docx</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\EmailTemplate\CTRLWeeklyReport_Template.docx</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\EmailTemplate\TPLEmail_Techninal_ERROR_Template.docx</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\Report\CTRL_RawData.xlsx</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\Report\Control chart 2022.xlsx</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\Report\ControlValue.xlsx</t>
-  </si>
-  <si>
-    <t>\\HMCMTP-FS01.hmc.co.th\Files_Sharing\Departments\Technology\QA\RPA2022\NONPRODUCTION\CONTROLCHART\Initialize\LIMS_CTRLCHTM.xlsx</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -168,9 +74,6 @@
   </si>
   <si>
     <t>EM_DIS_ReportExecutionDaily</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>FileMaster\EM_DIS_DailyReport.docx</t>
@@ -359,6 +262,60 @@
   <si>
     <t>strEM_DIS_EnvironmentPath</t>
   </si>
+  <si>
+    <t>Non Production/EMAIL_DISPATCHER</t>
+  </si>
+  <si>
+    <t>EM_DIS_DailyReportPath</t>
+  </si>
+  <si>
+    <t>EM_DIS_TechnicalErrorEmailTemplatePath</t>
+  </si>
+  <si>
+    <t>EM_DIS_EmailFilterRulesFilePath</t>
+  </si>
+  <si>
+    <t>EM_DIS_UnknownFolder</t>
+  </si>
+  <si>
+    <t>EM_DIS_ForwardUnknownTo</t>
+  </si>
+  <si>
+    <t>EM_DIS_ForwardUnknownCC</t>
+  </si>
+  <si>
+    <t>EM_DIS_ForwardUnknownSubject</t>
+  </si>
+  <si>
+    <t>EM_DIS_DefaultInbox</t>
+  </si>
+  <si>
+    <t>EM_DIS_ReportExecutionPeriod</t>
+  </si>
+  <si>
+    <t>EM_DIS_EmailHPCTeamList</t>
+  </si>
+  <si>
+    <t>EM_DIS_EmailCCHPCTeamList</t>
+  </si>
+  <si>
+    <t>EM_DIS_SubjectEMailSuccess</t>
+  </si>
+  <si>
+    <t>EM_DIS_TechnicalErrorEmailList</t>
+  </si>
+  <si>
+    <t>EM_DIS_TechnicalErrorCCList</t>
+  </si>
+  <si>
+    <t>EM_DIS_EnvironmentPath</t>
+  </si>
+  <si>
+    <t>EM_DIS_SubjectEMailError</t>
+  </si>
+  <si>
+    <t>EM_DIS_SQLConnectionString</t>
+  </si>
 </sst>
 </file>
 
@@ -375,14 +332,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -415,8 +364,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464E55"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,19 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,71 +420,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,47 +765,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="18"/>
+    <col min="1" max="1" width="32.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -870,28 +1045,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -902,288 +1088,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.77734375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="38.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
+      <c r="B9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1192,239 +1215,291 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3EFCD5-131D-4D0A-A192-7DD6DAAC3711}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE9FEFA-D988-4BBF-83F3-3DD764CB7DD1}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="B18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="17" hidden="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="20" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8B7DEC-933E-491F-B563-BEEFA120AA7D}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{EFED27CB-DDBE-4778-8D9F-7955E0853D27}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>